--- a/data/template_probast.xlsx
+++ b/data/template_probast.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/checklist/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DFA705F-C922-421B-A2E4-79002426F15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{0DFA705F-C922-421B-A2E4-79002426F15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC2657C6-EB57-4D99-87B1-A1E7CB2A2131}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84BC21AD-B76D-428F-97FE-2ADEBA6E78E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>section</t>
   </si>
   <si>
-    <t>item_number</t>
-  </si>
-  <si>
-    <t>item_text</t>
-  </si>
-  <si>
     <t>item_full_text</t>
   </si>
   <si>
@@ -98,22 +92,40 @@
     <t>Risk of bias</t>
   </si>
   <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Predictors</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
     <t>Applicability</t>
   </si>
   <si>
     <t>Overall</t>
+  </si>
+  <si>
+    <t>1. Participants</t>
+  </si>
+  <si>
+    <t>2. Predictors</t>
+  </si>
+  <si>
+    <t>3. Outcome</t>
+  </si>
+  <si>
+    <t>4. Analysis</t>
+  </si>
+  <si>
+    <t>5. Participants</t>
+  </si>
+  <si>
+    <t>6. Predictors</t>
+  </si>
+  <si>
+    <t>7. Outcome</t>
+  </si>
+  <si>
+    <t>8. Risk of bias</t>
+  </si>
+  <si>
+    <t>9. Applicability</t>
+  </si>
+  <si>
+    <t>checklist_item</t>
   </si>
 </sst>
 </file>
@@ -465,175 +477,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9E2939-EC7E-460E-95E8-AF4031CF378D}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
